--- a/biology/Histoire de la zoologie et de la botanique/George_Charles_Wallich/George_Charles_Wallich.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Charles_Wallich/George_Charles_Wallich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Charles Wallich (1815 à Calcutta-1899) est un docteur en médecine et biologiste marin britannique.
 Il est le fils du naturaliste danois naturalisé britannique Nathaniel Wallich (1786-1854) qui dirigeait à Calcutta le jardin botanique. Il obtient son titre de docteur en médecine à Édimbourg en 1834 et entre alors au Indian Medical Service, fonction qu'il occupe jusqu'en 1857, date à laquelle il revient en Grande-Bretagne. Au vu de ses observations sur la vie marine, Thomas Henry Huxley (1825-1895) et Sir Roderick Murchison (1792-1871) le recommandent comme naturaliste pour l'expédition de l’H.M.S. Bulldog en 1860.
